--- a/utils/rebalance_tools/csvs/ocfx_march_2019.xlsx
+++ b/utils/rebalance_tools/csvs/ocfx_march_2019.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoin\Desktop\Mike\Bletch\bcindex\utils\rebalance_tools\csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9D98604-B504-401F-80D1-76F9FADE4430}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1F57C8-198B-4414-A76E-D812B1581AD8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="510" windowWidth="22950" windowHeight="14730"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="22950" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ocfx_march_2019" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="200">
   <si>
     <t>name</t>
   </si>
@@ -325,162 +333,6 @@
     <t>Loom Network</t>
   </si>
   <si>
-    <t>KuCoin Shares</t>
-  </si>
-  <si>
-    <t>Metronome</t>
-  </si>
-  <si>
-    <t>PumaPay</t>
-  </si>
-  <si>
-    <t>Endor Protocol</t>
-  </si>
-  <si>
-    <t>Bancor</t>
-  </si>
-  <si>
-    <t>FunFair</t>
-  </si>
-  <si>
-    <t>Syscoin</t>
-  </si>
-  <si>
-    <t>Numeraire</t>
-  </si>
-  <si>
-    <t>Enjin Coin</t>
-  </si>
-  <si>
-    <t>Iconomi</t>
-  </si>
-  <si>
-    <t>Cortex</t>
-  </si>
-  <si>
-    <t>Ethos</t>
-  </si>
-  <si>
-    <t>Byteball</t>
-  </si>
-  <si>
-    <t>Mithril</t>
-  </si>
-  <si>
-    <t>Dragonchain</t>
-  </si>
-  <si>
-    <t>Vertcoin</t>
-  </si>
-  <si>
-    <t>Kyber Network</t>
-  </si>
-  <si>
-    <t>Particl</t>
-  </si>
-  <si>
-    <t>WaykiChain</t>
-  </si>
-  <si>
-    <t>Mainframe</t>
-  </si>
-  <si>
-    <t>Gifto</t>
-  </si>
-  <si>
-    <t>Centrality</t>
-  </si>
-  <si>
-    <t>Storm</t>
-  </si>
-  <si>
-    <t>Bitcoin Private</t>
-  </si>
-  <si>
-    <t>Raiden Network Token</t>
-  </si>
-  <si>
-    <t>LBRY Credits</t>
-  </si>
-  <si>
-    <t>Nxt</t>
-  </si>
-  <si>
-    <t>RChain</t>
-  </si>
-  <si>
-    <t>Zclassic</t>
-  </si>
-  <si>
-    <t>Odyssey</t>
-  </si>
-  <si>
-    <t>Edgeless</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>PotCoin</t>
-  </si>
-  <si>
-    <t>Quantum Resistant Ledger</t>
-  </si>
-  <si>
-    <t>Bread</t>
-  </si>
-  <si>
-    <t>SALT</t>
-  </si>
-  <si>
-    <t>Ambrosus</t>
-  </si>
-  <si>
-    <t>Nucleus Vision</t>
-  </si>
-  <si>
-    <t>OST</t>
-  </si>
-  <si>
-    <t>Streamr</t>
-  </si>
-  <si>
-    <t>Republic Protocol</t>
-  </si>
-  <si>
-    <t>Hydro</t>
-  </si>
-  <si>
-    <t>Ripio Credit Network</t>
-  </si>
-  <si>
-    <t>Melon</t>
-  </si>
-  <si>
-    <t>Moeda Loyalty Points</t>
-  </si>
-  <si>
-    <t>Aragon</t>
-  </si>
-  <si>
-    <t>SIRIN LABS Token</t>
-  </si>
-  <si>
-    <t>Ignis</t>
-  </si>
-  <si>
-    <t>Tierion</t>
-  </si>
-  <si>
-    <t>QLC Chain</t>
-  </si>
-  <si>
-    <t>Poet</t>
-  </si>
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -556,12 +408,6 @@
     <t>XTZ</t>
   </si>
   <si>
-    <t>IOTA</t>
-  </si>
-  <si>
-    <t>MKT</t>
-  </si>
-  <si>
     <t>HT</t>
   </si>
   <si>
@@ -775,157 +621,19 @@
     <t>LOOM</t>
   </si>
   <si>
-    <t>KCS</t>
-  </si>
-  <si>
-    <t>MET</t>
-  </si>
-  <si>
-    <t>PMA</t>
-  </si>
-  <si>
-    <t>EDR</t>
-  </si>
-  <si>
-    <t>BNT</t>
-  </si>
-  <si>
-    <t>FUN</t>
-  </si>
-  <si>
-    <t>SYS</t>
-  </si>
-  <si>
-    <t>NMR</t>
-  </si>
-  <si>
-    <t>ENJ</t>
-  </si>
-  <si>
-    <t>ICN</t>
-  </si>
-  <si>
-    <t>CTXC</t>
-  </si>
-  <si>
-    <t>ETHOS</t>
-  </si>
-  <si>
-    <t>GBYTE</t>
-  </si>
-  <si>
-    <t>MITH</t>
-  </si>
-  <si>
-    <t>DRGN</t>
-  </si>
-  <si>
-    <t>VTC</t>
-  </si>
-  <si>
-    <t>KNC</t>
-  </si>
-  <si>
-    <t>PART</t>
-  </si>
-  <si>
-    <t>WICC</t>
-  </si>
-  <si>
-    <t>MFT</t>
-  </si>
-  <si>
-    <t>GTO</t>
-  </si>
-  <si>
-    <t>CENNZ</t>
-  </si>
-  <si>
-    <t>STORM</t>
-  </si>
-  <si>
-    <t>BTCP</t>
-  </si>
-  <si>
-    <t>RDN</t>
-  </si>
-  <si>
-    <t>LBC</t>
-  </si>
-  <si>
-    <t>NXT</t>
-  </si>
-  <si>
-    <t>RHOC</t>
-  </si>
-  <si>
-    <t>ZCL</t>
-  </si>
-  <si>
-    <t>OCN</t>
-  </si>
-  <si>
-    <t>EDG</t>
-  </si>
-  <si>
-    <t>MTL</t>
-  </si>
-  <si>
-    <t>POT</t>
-  </si>
-  <si>
-    <t>QRL</t>
-  </si>
-  <si>
-    <t>BRD</t>
-  </si>
-  <si>
-    <t>AMB</t>
-  </si>
-  <si>
-    <t>NCASH</t>
-  </si>
-  <si>
-    <t>REN</t>
-  </si>
-  <si>
-    <t>HYDRO</t>
-  </si>
-  <si>
-    <t>RCN</t>
-  </si>
-  <si>
-    <t>MLN</t>
-  </si>
-  <si>
-    <t>MDA</t>
-  </si>
-  <si>
-    <t>ANT</t>
-  </si>
-  <si>
-    <t>SRN</t>
-  </si>
-  <si>
-    <t>IGNIS</t>
-  </si>
-  <si>
-    <t>TNT</t>
-  </si>
-  <si>
-    <t>QLC</t>
-  </si>
-  <si>
-    <t>POE</t>
-  </si>
-  <si>
     <t>Ticker</t>
+  </si>
+  <si>
+    <t>MKR</t>
+  </si>
+  <si>
+    <t>IOT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1759,11 +1467,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,39 +1489,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="G1" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="H1" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="I1" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1840,7 +1548,7 @@
         <v>17556200</v>
       </c>
       <c r="J2">
-        <v>83.666708842547195</v>
+        <v>0.83666708842547199</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1872,12 +1580,12 @@
         <v>21821174210</v>
       </c>
       <c r="J3">
-        <v>21.821174209999999</v>
+        <v>0.21821174209999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1904,12 +1612,12 @@
         <v>104993521</v>
       </c>
       <c r="J4">
-        <v>71.4358985307544</v>
+        <v>0.71435898530754405</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1936,7 +1644,7 @@
         <v>19178623630</v>
       </c>
       <c r="J5">
-        <v>13.445388882527901</v>
+        <v>0.13445388882527901</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1968,12 +1676,12 @@
         <v>906245118</v>
       </c>
       <c r="J6">
-        <v>62.072210894324101</v>
+        <v>0.62072210894324098</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -2000,12 +1708,12 @@
         <v>3460620</v>
       </c>
       <c r="J7">
-        <v>0.35434728079353101</v>
+        <v>3.54347280793531E-3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -2032,12 +1740,12 @@
         <v>60616861</v>
       </c>
       <c r="J8">
-        <v>72.263170658808093</v>
+        <v>0.72263170658808096</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -2064,12 +1772,12 @@
         <v>17640138</v>
       </c>
       <c r="J9">
-        <v>84.066972864620197</v>
+        <v>0.84066972864620204</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -2096,12 +1804,12 @@
         <v>66682072191</v>
       </c>
       <c r="J10">
-        <v>66.682072191000003</v>
+        <v>0.66682072191000008</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -2128,12 +1836,12 @@
         <v>25927070538</v>
       </c>
       <c r="J11">
-        <v>57.615712306666602</v>
+        <v>0.576157123066666</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -2160,12 +1868,12 @@
         <v>8649295</v>
       </c>
       <c r="J12">
-        <v>45.763465608465602</v>
+        <v>0.45763465608465603</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -2192,12 +1900,12 @@
         <v>17638686</v>
       </c>
       <c r="J13">
-        <v>84.0600531203076</v>
+        <v>0.84060053120307598</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -2224,12 +1932,12 @@
         <v>16815461</v>
       </c>
       <c r="J14">
-        <v>74.7929807941467</v>
+        <v>0.74792980794146702</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -2256,12 +1964,12 @@
         <v>5966356</v>
       </c>
       <c r="J15">
-        <v>28.676980141928102</v>
+        <v>0.28676980141928105</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -2288,12 +1996,12 @@
         <v>537500000</v>
       </c>
       <c r="J16">
-        <v>53.75</v>
+        <v>0.53749999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -2320,12 +2028,12 @@
         <v>144443333</v>
       </c>
       <c r="J17">
-        <v>144.443333</v>
+        <v>1.4444333300000001</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -2352,7 +2060,7 @@
         <v>108522867</v>
       </c>
       <c r="J18">
-        <v>47.183855217391297</v>
+        <v>0.47183855217391296</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2384,12 +2092,12 @@
         <v>65000000</v>
       </c>
       <c r="J19">
-        <v>65</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -2416,12 +2124,12 @@
         <v>785312964</v>
       </c>
       <c r="J20">
-        <v>37.696813648710503</v>
+        <v>0.37696813648710503</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -2448,12 +2156,12 @@
         <v>2779530283</v>
       </c>
       <c r="J21">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -2480,12 +2188,12 @@
         <v>1000000</v>
       </c>
       <c r="J22">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -2512,12 +2220,12 @@
         <v>50000200</v>
       </c>
       <c r="J23">
-        <v>10.00004</v>
+        <v>0.1000004</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -2544,12 +2252,12 @@
         <v>118404131673</v>
       </c>
       <c r="J24">
-        <v>42.158730416100802</v>
+        <v>0.42158730416100804</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -2576,12 +2284,12 @@
         <v>452552412</v>
       </c>
       <c r="J25">
-        <v>10.5244746976744</v>
+        <v>0.10524474697674401</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -2608,12 +2316,12 @@
         <v>326822211298</v>
       </c>
       <c r="J26">
-        <v>4.0852776412249998</v>
+        <v>4.0852776412249998E-2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -2640,12 +2348,12 @@
         <v>350000000</v>
       </c>
       <c r="J27">
-        <v>35</v>
+        <v>0.35000000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -2672,12 +2380,12 @@
         <v>55454734800</v>
       </c>
       <c r="J28">
-        <v>63.949636003342803</v>
+        <v>0.63949636003342802</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -2704,12 +2412,12 @@
         <v>8999999999</v>
       </c>
       <c r="J29">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -2736,12 +2444,12 @@
         <v>8279187391</v>
       </c>
       <c r="J30">
-        <v>39.424701861904701</v>
+        <v>0.39424701861904704</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -2768,12 +2476,12 @@
         <v>9370033</v>
       </c>
       <c r="J31">
-        <v>44.619204761904697</v>
+        <v>0.44619204761904696</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -2800,12 +2508,12 @@
         <v>1050141509</v>
       </c>
       <c r="J32">
-        <v>11.679956108881299</v>
+        <v>0.11679956108881299</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -2832,12 +2540,12 @@
         <v>133214575156</v>
       </c>
       <c r="J33">
-        <v>53.285830062399903</v>
+        <v>0.53285830062399908</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -2864,12 +2572,12 @@
         <v>801649919</v>
       </c>
       <c r="J34">
-        <v>8.0164991899999993</v>
+        <v>8.0164991899999996E-2</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -2896,12 +2604,12 @@
         <v>114878273</v>
       </c>
       <c r="J35">
-        <v>49.024760253134502</v>
+        <v>0.49024760253134503</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -2928,12 +2636,12 @@
         <v>100000000</v>
       </c>
       <c r="J36">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -2960,12 +2668,12 @@
         <v>17413924</v>
       </c>
       <c r="J37">
-        <v>83.385231479040598</v>
+        <v>0.833852314790406</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
@@ -2992,12 +2700,12 @@
         <v>10128375</v>
       </c>
       <c r="J38">
-        <v>10.128375</v>
+        <v>0.10128375000000001</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
@@ -3024,12 +2732,12 @@
         <v>584285404</v>
       </c>
       <c r="J39">
-        <v>58.428540399999903</v>
+        <v>0.58428540399999906</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
@@ -3056,12 +2764,12 @@
         <v>39565441104</v>
       </c>
       <c r="J40">
-        <v>43.488238993264801</v>
+        <v>0.43488238993264799</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
@@ -3088,12 +2796,12 @@
         <v>43529781</v>
       </c>
       <c r="J41">
-        <v>51.821167857142797</v>
+        <v>0.51821167857142802</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
@@ -3120,12 +2828,12 @@
         <v>2972860000</v>
       </c>
       <c r="J42">
-        <v>14.1564761904761</v>
+        <v>0.141564761904761</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
@@ -3152,12 +2860,12 @@
         <v>11476387786</v>
       </c>
       <c r="J43">
-        <v>54.649465647619003</v>
+        <v>0.54649465647619</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
@@ -3184,12 +2892,12 @@
         <v>89280032</v>
       </c>
       <c r="J44">
-        <v>89.280031999999906</v>
+        <v>0.89280031999999909</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
@@ -3216,12 +2924,12 @@
         <v>313694525</v>
       </c>
       <c r="J45">
-        <v>46.375403383035803</v>
+        <v>0.46375403383035801</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
@@ -3248,12 +2956,12 @@
         <v>400230000</v>
       </c>
       <c r="J46">
-        <v>50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
@@ -3280,12 +2988,12 @@
         <v>1239066787</v>
       </c>
       <c r="J47">
-        <v>82.604452466666601</v>
+        <v>0.826044524666666</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
@@ -3312,12 +3020,12 @@
         <v>111855741</v>
       </c>
       <c r="J48">
-        <v>55.927870499999997</v>
+        <v>0.55927870499999999</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
@@ -3344,12 +3052,12 @@
         <v>1002499275</v>
       </c>
       <c r="J49">
-        <v>47.738060714285702</v>
+        <v>0.47738060714285702</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
@@ -3376,12 +3084,12 @@
         <v>140245398</v>
       </c>
       <c r="J50">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
@@ -3408,12 +3116,12 @@
         <v>28808713174</v>
       </c>
       <c r="J51">
-        <v>20.596606505836402</v>
+        <v>0.20596606505836401</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
@@ -3440,7 +3148,7 @@
         <v>2693840000</v>
       </c>
       <c r="J52">
-        <v>74.817032425935196</v>
+        <v>0.74817032425935193</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3472,12 +3180,12 @@
         <v>12013965609</v>
       </c>
       <c r="J53">
-        <v>57.209360042857099</v>
+        <v>0.57209360042857105</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
@@ -3504,12 +3212,12 @@
         <v>153756875</v>
       </c>
       <c r="J54">
-        <v>79.317189332859101</v>
+        <v>0.79317189332859106</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
@@ -3536,12 +3244,12 @@
         <v>11000000</v>
       </c>
       <c r="J55">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
@@ -3568,12 +3276,12 @@
         <v>3470483788</v>
       </c>
       <c r="J56">
-        <v>50.999999989125399</v>
+        <v>0.509999999891254</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
@@ -3600,12 +3308,12 @@
         <v>484450000</v>
       </c>
       <c r="J57">
-        <v>48.445</v>
+        <v>0.48444999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
@@ -3632,12 +3340,12 @@
         <v>280000000</v>
       </c>
       <c r="J58">
-        <v>28</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
@@ -3664,12 +3372,12 @@
         <v>1104590</v>
       </c>
       <c r="J59">
-        <v>11.0459</v>
+        <v>0.110459</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
@@ -3696,12 +3404,12 @@
         <v>184066828814</v>
       </c>
       <c r="J60">
-        <v>99.781443494335093</v>
+        <v>0.99781443494335098</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s">
         <v>61</v>
@@ -3728,12 +3436,12 @@
         <v>233020472</v>
       </c>
       <c r="J61">
-        <v>85.141591729465802</v>
+        <v>0.85141591729465804</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="B62" t="s">
         <v>62</v>
@@ -3760,12 +3468,12 @@
         <v>133248289</v>
       </c>
       <c r="J62">
-        <v>99.999999249521295</v>
+        <v>0.99999999249521299</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
@@ -3792,7 +3500,7 @@
         <v>6868563</v>
       </c>
       <c r="J63">
-        <v>32.096088785046703</v>
+        <v>0.32096088785046706</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3824,7 +3532,7 @@
         <v>350000000</v>
       </c>
       <c r="J64">
-        <v>35</v>
+        <v>0.35000000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3856,12 +3564,12 @@
         <v>63075548</v>
       </c>
       <c r="J65">
-        <v>24.259826153846099</v>
+        <v>0.24259826153846101</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="B66" t="s">
         <v>66</v>
@@ -3888,12 +3596,12 @@
         <v>5882463</v>
       </c>
       <c r="J66">
-        <v>28.1059008374576</v>
+        <v>0.28105900837457604</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
@@ -3920,7 +3628,7 @@
         <v>40999959</v>
       </c>
       <c r="J67">
-        <v>40.999958999999997</v>
+        <v>0.40999958999999997</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3952,12 +3660,12 @@
         <v>56781166</v>
       </c>
       <c r="J68">
-        <v>40.800513785619799</v>
+        <v>0.40800513785619802</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
@@ -3984,12 +3692,12 @@
         <v>15172086051</v>
       </c>
       <c r="J69">
-        <v>91.952036672727203</v>
+        <v>0.919520366727272</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
@@ -4016,12 +3724,12 @@
         <v>99225315</v>
       </c>
       <c r="J70">
-        <v>85.889661068657801</v>
+        <v>0.85889661068657808</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="B71" t="s">
         <v>71</v>
@@ -4048,12 +3756,12 @@
         <v>135787439</v>
       </c>
       <c r="J71">
-        <v>31.949985647058799</v>
+        <v>0.31949985647058798</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
@@ -4080,12 +3788,12 @@
         <v>32456475076</v>
       </c>
       <c r="J72">
-        <v>32.456475075999997</v>
+        <v>0.32456475075999996</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="B73" t="s">
         <v>73</v>
@@ -4112,12 +3820,12 @@
         <v>396349006</v>
       </c>
       <c r="J73">
-        <v>39.634900600000002</v>
+        <v>0.396349006</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="B74" t="s">
         <v>74</v>
@@ -4144,12 +3852,12 @@
         <v>870502690</v>
       </c>
       <c r="J74">
-        <v>87.050269</v>
+        <v>0.87050269000000002</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
@@ -4176,12 +3884,12 @@
         <v>15793831</v>
       </c>
       <c r="J75">
-        <v>49.9999677722477</v>
+        <v>0.499999677722477</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s">
         <v>76</v>
@@ -4208,12 +3916,12 @@
         <v>373831587</v>
       </c>
       <c r="J76">
-        <v>37.383158700000003</v>
+        <v>0.37383158700000002</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
@@ -4240,12 +3948,12 @@
         <v>560000011</v>
       </c>
       <c r="J77">
-        <v>56.000001099999999</v>
+        <v>0.56000001099999996</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="B78" t="s">
         <v>78</v>
@@ -4272,7 +3980,7 @@
         <v>2000000</v>
       </c>
       <c r="J78">
-        <v>40</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4304,12 +4012,12 @@
         <v>937637069</v>
       </c>
       <c r="J79">
-        <v>50.683084810810797</v>
+        <v>0.50683084810810797</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="B80" t="s">
         <v>80</v>
@@ -4336,12 +4044,12 @@
         <v>2525040005</v>
       </c>
       <c r="J80">
-        <v>25.25040005</v>
+        <v>0.25250400049999999</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="B81" t="s">
         <v>81</v>
@@ -4368,12 +4076,12 @@
         <v>788984491</v>
       </c>
       <c r="J81">
-        <v>57.3824902702329</v>
+        <v>0.573824902702329</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="B82" t="s">
         <v>82</v>
@@ -4400,12 +4108,12 @@
         <v>108570586</v>
       </c>
       <c r="J82">
-        <v>86.856468800000002</v>
+        <v>0.86856468800000008</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="B83" t="s">
         <v>83</v>
@@ -4432,12 +4140,12 @@
         <v>291866662</v>
       </c>
       <c r="J83">
-        <v>45.526252664364002</v>
+        <v>0.45526252664364003</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="B84" t="s">
         <v>84</v>
@@ -4464,12 +4172,12 @@
         <v>29261461</v>
       </c>
       <c r="J84">
-        <v>32.771877309479599</v>
+        <v>0.32771877309479602</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="B85" t="s">
         <v>85</v>
@@ -4496,12 +4204,12 @@
         <v>14640949</v>
       </c>
       <c r="J85">
-        <v>44.366512121212097</v>
+        <v>0.44366512121212098</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="B86" t="s">
         <v>86</v>
@@ -4528,12 +4236,12 @@
         <v>1411977969</v>
       </c>
       <c r="J86">
-        <v>64.390282752768499</v>
+        <v>0.64390282752768502</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="B87" t="s">
         <v>87</v>
@@ -4560,12 +4268,12 @@
         <v>5586013</v>
       </c>
       <c r="J87">
-        <v>25.631260080011</v>
+        <v>0.25631260080010998</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="B88" t="s">
         <v>88</v>
@@ -4592,12 +4300,12 @@
         <v>60000000</v>
       </c>
       <c r="J88">
-        <v>60</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="B89" t="s">
         <v>89</v>
@@ -4624,12 +4332,12 @@
         <v>963622000</v>
       </c>
       <c r="J89">
-        <v>96.362200000000001</v>
+        <v>0.96362200000000009</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="B90" t="s">
         <v>90</v>
@@ -4656,12 +4364,12 @@
         <v>53252246</v>
       </c>
       <c r="J90">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="B91" t="s">
         <v>91</v>
@@ -4688,12 +4396,12 @@
         <v>45500000</v>
       </c>
       <c r="J91">
-        <v>45.5</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="B92" t="s">
         <v>92</v>
@@ -4720,12 +4428,12 @@
         <v>106152493</v>
       </c>
       <c r="J92">
-        <v>50.5488061904761</v>
+        <v>0.50548806190476103</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="B93" t="s">
         <v>93</v>
@@ -4752,12 +4460,12 @@
         <v>1413859298</v>
       </c>
       <c r="J93">
-        <v>28.277185960000001</v>
+        <v>0.28277185960000001</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="B94" t="s">
         <v>94</v>
@@ -4784,12 +4492,12 @@
         <v>8745102</v>
       </c>
       <c r="J94">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="B95" t="s">
         <v>95</v>
@@ -4816,12 +4524,12 @@
         <v>440000000</v>
       </c>
       <c r="J95">
-        <v>44</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="B96" t="s">
         <v>96</v>
@@ -4848,12 +4556,12 @@
         <v>998999495</v>
       </c>
       <c r="J96">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
@@ -4880,12 +4588,12 @@
         <v>65729675</v>
       </c>
       <c r="J97">
-        <v>62.555227902183802</v>
+        <v>0.62555227902183808</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="B98" t="s">
         <v>98</v>
@@ -4912,12 +4620,12 @@
         <v>114347861</v>
       </c>
       <c r="J98">
-        <v>55.779444390243903</v>
+        <v>0.55779444390243904</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
@@ -4944,12 +4652,12 @@
         <v>74836171</v>
       </c>
       <c r="J99">
-        <v>49.8907806666666</v>
+        <v>0.49890780666666601</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="B100" t="s">
         <v>100</v>
@@ -4976,1639 +4684,7 @@
         <v>659106821</v>
       </c>
       <c r="J100">
-        <v>65.910682100000002</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>251</v>
-      </c>
-      <c r="B101" t="s">
-        <v>101</v>
-      </c>
-      <c r="C101">
-        <v>0.43285894712531597</v>
-      </c>
-      <c r="D101">
-        <v>17.764385913386199</v>
-      </c>
-      <c r="E101">
-        <v>43285894.712531596</v>
-      </c>
-      <c r="F101">
-        <v>38931297.344299398</v>
-      </c>
-      <c r="G101">
-        <v>567165.63467099995</v>
-      </c>
-      <c r="H101">
-        <v>100000000</v>
-      </c>
-      <c r="I101">
-        <v>89939916</v>
-      </c>
-      <c r="J101">
-        <v>89.939915999999997</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>252</v>
-      </c>
-      <c r="B102" t="s">
-        <v>102</v>
-      </c>
-      <c r="C102">
-        <v>1.0026698520209401</v>
-      </c>
-      <c r="D102">
-        <v>-14.0370792783404</v>
-      </c>
-      <c r="E102">
-        <v>42700901.521986201</v>
-      </c>
-      <c r="F102">
-        <v>8964466.0682990309</v>
-      </c>
-      <c r="G102">
-        <v>179892.488725</v>
-      </c>
-      <c r="H102">
-        <v>42587200</v>
-      </c>
-      <c r="I102">
-        <v>8940596</v>
-      </c>
-      <c r="J102">
-        <v>20.9936224969004</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>253</v>
-      </c>
-      <c r="B103" t="s">
-        <v>103</v>
-      </c>
-      <c r="C103">
-        <v>5.31099018057616E-4</v>
-      </c>
-      <c r="D103">
-        <v>-0.87387176615271001</v>
-      </c>
-      <c r="E103">
-        <v>41448537.738194801</v>
-      </c>
-      <c r="F103">
-        <v>11131759.2758836</v>
-      </c>
-      <c r="G103">
-        <v>450734.15440100001</v>
-      </c>
-      <c r="H103">
-        <v>78042956829</v>
-      </c>
-      <c r="I103">
-        <v>20959856632</v>
-      </c>
-      <c r="J103">
-        <v>26.856820248270601</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>254</v>
-      </c>
-      <c r="B104" t="s">
-        <v>104</v>
-      </c>
-      <c r="C104">
-        <v>2.7549419542338201E-2</v>
-      </c>
-      <c r="D104">
-        <v>-12.6921175282683</v>
-      </c>
-      <c r="E104">
-        <v>41324129.3135074</v>
-      </c>
-      <c r="F104">
-        <v>24414625.860861599</v>
-      </c>
-      <c r="G104">
-        <v>1921973.1781899999</v>
-      </c>
-      <c r="H104">
-        <v>1500000000</v>
-      </c>
-      <c r="I104">
-        <v>886211988</v>
-      </c>
-      <c r="J104">
-        <v>59.080799200000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>255</v>
-      </c>
-      <c r="B105" t="s">
-        <v>105</v>
-      </c>
-      <c r="C105">
-        <v>0.51898112513436501</v>
-      </c>
-      <c r="D105">
-        <v>-11.1654043946749</v>
-      </c>
-      <c r="E105">
-        <v>41178038.392660998</v>
-      </c>
-      <c r="F105">
-        <v>32048067.946279101</v>
-      </c>
-      <c r="G105">
-        <v>1940922.93463</v>
-      </c>
-      <c r="H105">
-        <v>79344000</v>
-      </c>
-      <c r="I105">
-        <v>61751895</v>
-      </c>
-      <c r="J105">
-        <v>77.828058832425896</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>256</v>
-      </c>
-      <c r="B106" t="s">
-        <v>106</v>
-      </c>
-      <c r="C106">
-        <v>3.6800697276615601E-3</v>
-      </c>
-      <c r="D106">
-        <v>-9.7399986630791897</v>
-      </c>
-      <c r="E106">
-        <v>40480767.004277103</v>
-      </c>
-      <c r="F106">
-        <v>22172188.592294201</v>
-      </c>
-      <c r="G106">
-        <v>1157696.9326599999</v>
-      </c>
-      <c r="H106">
-        <v>11000000000</v>
-      </c>
-      <c r="I106">
-        <v>6024937089</v>
-      </c>
-      <c r="J106">
-        <v>54.772155354545397</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>257</v>
-      </c>
-      <c r="B107" t="s">
-        <v>107</v>
-      </c>
-      <c r="C107">
-        <v>4.6924216281446697E-2</v>
-      </c>
-      <c r="D107">
-        <v>-12.161045879874299</v>
-      </c>
-      <c r="E107">
-        <v>39916181.759069301</v>
-      </c>
-      <c r="F107">
-        <v>25752805.2607239</v>
-      </c>
-      <c r="G107">
-        <v>669269.60554699996</v>
-      </c>
-      <c r="H107">
-        <v>850652070.98305094</v>
-      </c>
-      <c r="I107">
-        <v>548816950</v>
-      </c>
-      <c r="J107">
-        <v>64.517206119978397</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>258</v>
-      </c>
-      <c r="B108" t="s">
-        <v>108</v>
-      </c>
-      <c r="C108">
-        <v>3.4444363799697499</v>
-      </c>
-      <c r="D108">
-        <v>-9.9473128058548692</v>
-      </c>
-      <c r="E108">
-        <v>37888800.179667301</v>
-      </c>
-      <c r="F108">
-        <v>4647674.4517118298</v>
-      </c>
-      <c r="G108">
-        <v>54456.738274800002</v>
-      </c>
-      <c r="H108">
-        <v>11000000</v>
-      </c>
-      <c r="I108">
-        <v>1349328</v>
-      </c>
-      <c r="J108">
-        <v>12.266618181818099</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>259</v>
-      </c>
-      <c r="B109" t="s">
-        <v>109</v>
-      </c>
-      <c r="C109">
-        <v>3.6277197083299399E-2</v>
-      </c>
-      <c r="D109">
-        <v>-8.35939688046121</v>
-      </c>
-      <c r="E109">
-        <v>36277197.083299398</v>
-      </c>
-      <c r="F109">
-        <v>27671471.961141001</v>
-      </c>
-      <c r="G109">
-        <v>2279349.7339499998</v>
-      </c>
-      <c r="H109">
-        <v>1000000000</v>
-      </c>
-      <c r="I109">
-        <v>762778665</v>
-      </c>
-      <c r="J109">
-        <v>76.277866500000002</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>260</v>
-      </c>
-      <c r="B110" t="s">
-        <v>110</v>
-      </c>
-      <c r="C110">
-        <v>0.36099384538312401</v>
-      </c>
-      <c r="D110">
-        <v>-0.199262811229801</v>
-      </c>
-      <c r="E110">
-        <v>36099384.538312398</v>
-      </c>
-      <c r="F110">
-        <v>35713243.861659899</v>
-      </c>
-      <c r="G110">
-        <v>17114.0545881</v>
-      </c>
-      <c r="H110">
-        <v>100000000</v>
-      </c>
-      <c r="I110">
-        <v>98930340</v>
-      </c>
-      <c r="J110">
-        <v>98.930340000000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>261</v>
-      </c>
-      <c r="B111" t="s">
-        <v>111</v>
-      </c>
-      <c r="C111">
-        <v>0.115422162661724</v>
-      </c>
-      <c r="D111">
-        <v>-11.7389613003562</v>
-      </c>
-      <c r="E111">
-        <v>34602693.852034301</v>
-      </c>
-      <c r="F111">
-        <v>17289369.452775601</v>
-      </c>
-      <c r="G111">
-        <v>5840076.7020300003</v>
-      </c>
-      <c r="H111">
-        <v>299792458</v>
-      </c>
-      <c r="I111">
-        <v>149792458</v>
-      </c>
-      <c r="J111">
-        <v>49.965385720277197</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>262</v>
-      </c>
-      <c r="B112" t="s">
-        <v>112</v>
-      </c>
-      <c r="C112">
-        <v>0.15311554499650901</v>
-      </c>
-      <c r="D112">
-        <v>-2.9512400843128099</v>
-      </c>
-      <c r="E112">
-        <v>34036851.923032403</v>
-      </c>
-      <c r="F112">
-        <v>14281169.5642187</v>
-      </c>
-      <c r="G112">
-        <v>1943407.0497699999</v>
-      </c>
-      <c r="H112">
-        <v>222295208</v>
-      </c>
-      <c r="I112">
-        <v>93270540</v>
-      </c>
-      <c r="J112">
-        <v>41.957962494630102</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>263</v>
-      </c>
-      <c r="B113" t="s">
-        <v>113</v>
-      </c>
-      <c r="C113">
-        <v>33.582970103263598</v>
-      </c>
-      <c r="D113">
-        <v>-9.0687018723799504</v>
-      </c>
-      <c r="E113">
-        <v>33582970.103263602</v>
-      </c>
-      <c r="F113">
-        <v>22803105.363876801</v>
-      </c>
-      <c r="G113">
-        <v>8482.7792215699992</v>
-      </c>
-      <c r="H113">
-        <v>1000000</v>
-      </c>
-      <c r="I113">
-        <v>679008</v>
-      </c>
-      <c r="J113">
-        <v>67.900799999999904</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>264</v>
-      </c>
-      <c r="B114" t="s">
-        <v>114</v>
-      </c>
-      <c r="C114">
-        <v>3.3507447579818099E-2</v>
-      </c>
-      <c r="D114">
-        <v>-9.2189735126859702</v>
-      </c>
-      <c r="E114">
-        <v>33507447.5798181</v>
-      </c>
-      <c r="F114">
-        <v>16984307.836995501</v>
-      </c>
-      <c r="G114">
-        <v>3158186.02483</v>
-      </c>
-      <c r="H114">
-        <v>1000000000</v>
-      </c>
-      <c r="I114">
-        <v>506881576</v>
-      </c>
-      <c r="J114">
-        <v>50.688157599999997</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>265</v>
-      </c>
-      <c r="B115" t="s">
-        <v>115</v>
-      </c>
-      <c r="C115">
-        <v>7.6148430163182804E-2</v>
-      </c>
-      <c r="D115">
-        <v>2.1916475801732598</v>
-      </c>
-      <c r="E115">
-        <v>33010344.475739699</v>
-      </c>
-      <c r="F115">
-        <v>18155456.447460499</v>
-      </c>
-      <c r="G115">
-        <v>195031.383179</v>
-      </c>
-      <c r="H115">
-        <v>433500000</v>
-      </c>
-      <c r="I115">
-        <v>238421940</v>
-      </c>
-      <c r="J115">
-        <v>54.999294117646997</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>266</v>
-      </c>
-      <c r="B116" t="s">
-        <v>116</v>
-      </c>
-      <c r="C116">
-        <v>0.38118512902358398</v>
-      </c>
-      <c r="D116">
-        <v>-11.2718703360155</v>
-      </c>
-      <c r="E116">
-        <v>31957656.014331199</v>
-      </c>
-      <c r="F116">
-        <v>18424181.823414002</v>
-      </c>
-      <c r="G116">
-        <v>1387569.4932200001</v>
-      </c>
-      <c r="H116">
-        <v>83837625.292968705</v>
-      </c>
-      <c r="I116">
-        <v>48333947</v>
-      </c>
-      <c r="J116">
-        <v>57.6518559907894</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>267</v>
-      </c>
-      <c r="B117" t="s">
-        <v>117</v>
-      </c>
-      <c r="C117">
-        <v>0.14070695270384301</v>
-      </c>
-      <c r="D117">
-        <v>-11.1177694175562</v>
-      </c>
-      <c r="E117">
-        <v>31799771.311068598</v>
-      </c>
-      <c r="F117">
-        <v>22122940.917305201</v>
-      </c>
-      <c r="G117">
-        <v>5311145.2391600003</v>
-      </c>
-      <c r="H117">
-        <v>226000000</v>
-      </c>
-      <c r="I117">
-        <v>157227063</v>
-      </c>
-      <c r="J117">
-        <v>69.569496902654805</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>268</v>
-      </c>
-      <c r="B118" t="s">
-        <v>118</v>
-      </c>
-      <c r="C118">
-        <v>2.2126813409280199</v>
-      </c>
-      <c r="D118">
-        <v>-9.47461521309123</v>
-      </c>
-      <c r="E118">
-        <v>31542692.2601819</v>
-      </c>
-      <c r="F118">
-        <v>17855187.8269918</v>
-      </c>
-      <c r="G118">
-        <v>14105.1224459</v>
-      </c>
-      <c r="H118">
-        <v>14255415.67</v>
-      </c>
-      <c r="I118">
-        <v>8069480</v>
-      </c>
-      <c r="J118">
-        <v>56.606416724711302</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>269</v>
-      </c>
-      <c r="B119" t="s">
-        <v>119</v>
-      </c>
-      <c r="C119">
-        <v>0.13670469189172299</v>
-      </c>
-      <c r="D119">
-        <v>-13.6394121388839</v>
-      </c>
-      <c r="E119">
-        <v>28707985.297261801</v>
-      </c>
-      <c r="F119">
-        <v>25837186.767535601</v>
-      </c>
-      <c r="G119">
-        <v>1036225.96818</v>
-      </c>
-      <c r="H119">
-        <v>210000000</v>
-      </c>
-      <c r="I119">
-        <v>189000000</v>
-      </c>
-      <c r="J119">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>270</v>
-      </c>
-      <c r="B120" t="s">
-        <v>120</v>
-      </c>
-      <c r="C120">
-        <v>2.7701206977833199E-3</v>
-      </c>
-      <c r="D120">
-        <v>-9.1741580573895298</v>
-      </c>
-      <c r="E120">
-        <v>27701206.9778332</v>
-      </c>
-      <c r="F120">
-        <v>15914277.036673199</v>
-      </c>
-      <c r="G120">
-        <v>1738067.5753500001</v>
-      </c>
-      <c r="H120">
-        <v>10000000000</v>
-      </c>
-      <c r="I120">
-        <v>5744976040</v>
-      </c>
-      <c r="J120">
-        <v>57.449760400000002</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>271</v>
-      </c>
-      <c r="B121" t="s">
-        <v>121</v>
-      </c>
-      <c r="C121">
-        <v>2.7616690438442899E-2</v>
-      </c>
-      <c r="D121">
-        <v>-9.6741409375599297</v>
-      </c>
-      <c r="E121">
-        <v>27616690.438442901</v>
-      </c>
-      <c r="F121">
-        <v>14753173.5634067</v>
-      </c>
-      <c r="G121">
-        <v>14379800.121099999</v>
-      </c>
-      <c r="H121">
-        <v>1000000000</v>
-      </c>
-      <c r="I121">
-        <v>534212222</v>
-      </c>
-      <c r="J121">
-        <v>53.421222199999903</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>272</v>
-      </c>
-      <c r="B122" t="s">
-        <v>122</v>
-      </c>
-      <c r="C122">
-        <v>2.3012867814377499E-2</v>
-      </c>
-      <c r="D122">
-        <v>-8.4430688427453795</v>
-      </c>
-      <c r="E122">
-        <v>27615441.3772531</v>
-      </c>
-      <c r="F122">
-        <v>18493896.8244959</v>
-      </c>
-      <c r="G122">
-        <v>4019.2960402399999</v>
-      </c>
-      <c r="H122">
-        <v>1200000000</v>
-      </c>
-      <c r="I122">
-        <v>803632862</v>
-      </c>
-      <c r="J122">
-        <v>66.969405166666604</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>273</v>
-      </c>
-      <c r="B123" t="s">
-        <v>123</v>
-      </c>
-      <c r="C123">
-        <v>2.7321738389095799E-3</v>
-      </c>
-      <c r="D123">
-        <v>-10.3689707934809</v>
-      </c>
-      <c r="E123">
-        <v>27321738.389095802</v>
-      </c>
-      <c r="F123">
-        <v>14902009.624123299</v>
-      </c>
-      <c r="G123">
-        <v>1244766.68857</v>
-      </c>
-      <c r="H123">
-        <v>10000000000</v>
-      </c>
-      <c r="I123">
-        <v>5454268470</v>
-      </c>
-      <c r="J123">
-        <v>54.542684700000002</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>274</v>
-      </c>
-      <c r="B124" t="s">
-        <v>124</v>
-      </c>
-      <c r="C124">
-        <v>1.1261489307960999</v>
-      </c>
-      <c r="D124">
-        <v>-18.3308587539508</v>
-      </c>
-      <c r="E124">
-        <v>25926077.934554499</v>
-      </c>
-      <c r="F124">
-        <v>25410976.2874594</v>
-      </c>
-      <c r="G124">
-        <v>61665.7463422</v>
-      </c>
-      <c r="H124">
-        <v>23021891</v>
-      </c>
-      <c r="I124">
-        <v>22564490</v>
-      </c>
-      <c r="J124">
-        <v>98.013191010243204</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>275</v>
-      </c>
-      <c r="B125" t="s">
-        <v>125</v>
-      </c>
-      <c r="C125">
-        <v>0.25680141151880298</v>
-      </c>
-      <c r="D125">
-        <v>-9.4673209332837196</v>
-      </c>
-      <c r="E125">
-        <v>25680141.151880302</v>
-      </c>
-      <c r="F125">
-        <v>12992594.179091901</v>
-      </c>
-      <c r="G125">
-        <v>1261334.40362</v>
-      </c>
-      <c r="H125">
-        <v>100000000</v>
-      </c>
-      <c r="I125">
-        <v>50593936</v>
-      </c>
-      <c r="J125">
-        <v>50.5939359999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>276</v>
-      </c>
-      <c r="B126" t="s">
-        <v>126</v>
-      </c>
-      <c r="C126">
-        <v>2.5171919363253501E-2</v>
-      </c>
-      <c r="D126">
-        <v>-9.3880276180732505</v>
-      </c>
-      <c r="E126">
-        <v>25171919.3632535</v>
-      </c>
-      <c r="F126">
-        <v>5392367.3055800796</v>
-      </c>
-      <c r="G126">
-        <v>23374.586971199999</v>
-      </c>
-      <c r="H126">
-        <v>1000000000</v>
-      </c>
-      <c r="I126">
-        <v>214221539</v>
-      </c>
-      <c r="J126">
-        <v>21.422153899999898</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>277</v>
-      </c>
-      <c r="B127" t="s">
-        <v>127</v>
-      </c>
-      <c r="C127">
-        <v>2.4369456213161299E-2</v>
-      </c>
-      <c r="D127">
-        <v>-11.2247653264349</v>
-      </c>
-      <c r="E127">
-        <v>24369456.213161301</v>
-      </c>
-      <c r="F127">
-        <v>24345085.343519699</v>
-      </c>
-      <c r="G127">
-        <v>723872.09051000001</v>
-      </c>
-      <c r="H127">
-        <v>1000000000</v>
-      </c>
-      <c r="I127">
-        <v>998999942</v>
-      </c>
-      <c r="J127">
-        <v>99.899994199999995</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>278</v>
-      </c>
-      <c r="B128" t="s">
-        <v>128</v>
-      </c>
-      <c r="C128">
-        <v>2.6492704790613001E-2</v>
-      </c>
-      <c r="D128">
-        <v>5.0945434195264401</v>
-      </c>
-      <c r="E128">
-        <v>22815125.114688799</v>
-      </c>
-      <c r="F128">
-        <v>9902704.6266462095</v>
-      </c>
-      <c r="G128">
-        <v>241750.436881</v>
-      </c>
-      <c r="H128">
-        <v>861185194</v>
-      </c>
-      <c r="I128">
-        <v>373789868</v>
-      </c>
-      <c r="J128">
-        <v>43.404121506529201</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>279</v>
-      </c>
-      <c r="B129" t="s">
-        <v>129</v>
-      </c>
-      <c r="C129">
-        <v>1.0726438597841199</v>
-      </c>
-      <c r="D129">
-        <v>-20.588407320624398</v>
-      </c>
-      <c r="E129">
-        <v>22461392.769958399</v>
-      </c>
-      <c r="F129">
-        <v>6452435.5063384203</v>
-      </c>
-      <c r="G129">
-        <v>203872.952074</v>
-      </c>
-      <c r="H129">
-        <v>20940214.746093702</v>
-      </c>
-      <c r="I129">
-        <v>6015450</v>
-      </c>
-      <c r="J129">
-        <v>28.726782761968199</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>280</v>
-      </c>
-      <c r="B130" t="s">
-        <v>130</v>
-      </c>
-      <c r="C130">
-        <v>2.1610141040989102E-3</v>
-      </c>
-      <c r="D130">
-        <v>-10.462680091665399</v>
-      </c>
-      <c r="E130">
-        <v>21610141.040989101</v>
-      </c>
-      <c r="F130">
-        <v>13363486.988602201</v>
-      </c>
-      <c r="G130">
-        <v>4905657.9365900001</v>
-      </c>
-      <c r="H130">
-        <v>10000000000</v>
-      </c>
-      <c r="I130">
-        <v>6183896238</v>
-      </c>
-      <c r="J130">
-        <v>61.838962379999998</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>281</v>
-      </c>
-      <c r="B131" t="s">
-        <v>131</v>
-      </c>
-      <c r="C131">
-        <v>0.16260243717395301</v>
-      </c>
-      <c r="D131">
-        <v>-10.841313070430999</v>
-      </c>
-      <c r="E131">
-        <v>21471163.533701599</v>
-      </c>
-      <c r="F131">
-        <v>16202049.443347801</v>
-      </c>
-      <c r="G131">
-        <v>103399.739933</v>
-      </c>
-      <c r="H131">
-        <v>132046997</v>
-      </c>
-      <c r="I131">
-        <v>99642107</v>
-      </c>
-      <c r="J131">
-        <v>75.459578228802798</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>282</v>
-      </c>
-      <c r="B132" t="s">
-        <v>132</v>
-      </c>
-      <c r="C132">
-        <v>0.31419999147460098</v>
-      </c>
-      <c r="D132">
-        <v>-13.6195947294459</v>
-      </c>
-      <c r="E132">
-        <v>20922228.041903201</v>
-      </c>
-      <c r="F132">
-        <v>13029815.5194533</v>
-      </c>
-      <c r="G132">
-        <v>1594007.6932099999</v>
-      </c>
-      <c r="H132">
-        <v>66588888</v>
-      </c>
-      <c r="I132">
-        <v>41469815</v>
-      </c>
-      <c r="J132">
-        <v>62.277380274018</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>283</v>
-      </c>
-      <c r="B133" t="s">
-        <v>133</v>
-      </c>
-      <c r="C133">
-        <v>1.7872970529533499E-2</v>
-      </c>
-      <c r="D133">
-        <v>-9.7969058794918702</v>
-      </c>
-      <c r="E133">
-        <v>19021558.930751801</v>
-      </c>
-      <c r="F133">
-        <v>3963944.3114321302</v>
-      </c>
-      <c r="G133">
-        <v>7879.1736858300001</v>
-      </c>
-      <c r="H133">
-        <v>1064263990.1028399</v>
-      </c>
-      <c r="I133">
-        <v>221784303</v>
-      </c>
-      <c r="J133">
-        <v>20.839218940271401</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>284</v>
-      </c>
-      <c r="B134" t="s">
-        <v>134</v>
-      </c>
-      <c r="C134">
-        <v>0.183624850090048</v>
-      </c>
-      <c r="D134">
-        <v>-7.90079856993394</v>
-      </c>
-      <c r="E134">
-        <v>18913359.559274901</v>
-      </c>
-      <c r="F134">
-        <v>12354862.188457999</v>
-      </c>
-      <c r="G134">
-        <v>4495.9344413700001</v>
-      </c>
-      <c r="H134">
-        <v>103000000</v>
-      </c>
-      <c r="I134">
-        <v>67283171</v>
-      </c>
-      <c r="J134">
-        <v>65.323466990291195</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>285</v>
-      </c>
-      <c r="B135" t="s">
-        <v>135</v>
-      </c>
-      <c r="C135">
-        <v>0.21079480104364801</v>
-      </c>
-      <c r="D135">
-        <v>-8.7035164043469493</v>
-      </c>
-      <c r="E135">
-        <v>18731798.9610078</v>
-      </c>
-      <c r="F135">
-        <v>18704661.238321502</v>
-      </c>
-      <c r="G135">
-        <v>159642.40633200001</v>
-      </c>
-      <c r="H135">
-        <v>88862718</v>
-      </c>
-      <c r="I135">
-        <v>88733978</v>
-      </c>
-      <c r="J135">
-        <v>99.8551248454948</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136" t="s">
-        <v>136</v>
-      </c>
-      <c r="C136">
-        <v>0.155525991837664</v>
-      </c>
-      <c r="D136">
-        <v>-10.259772832901101</v>
-      </c>
-      <c r="E136">
-        <v>18663119.020519599</v>
-      </c>
-      <c r="F136">
-        <v>12486145.614962401</v>
-      </c>
-      <c r="G136">
-        <v>222803.02208900001</v>
-      </c>
-      <c r="H136">
-        <v>120000000</v>
-      </c>
-      <c r="I136">
-        <v>80283337</v>
-      </c>
-      <c r="J136">
-        <v>66.902780833333296</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>286</v>
-      </c>
-      <c r="B137" t="s">
-        <v>137</v>
-      </c>
-      <c r="C137">
-        <v>5.02416411488373E-2</v>
-      </c>
-      <c r="D137">
-        <v>-12.507502167187701</v>
-      </c>
-      <c r="E137">
-        <v>18161219.700069901</v>
-      </c>
-      <c r="F137">
-        <v>7264487.8793104999</v>
-      </c>
-      <c r="G137">
-        <v>570006.24434900004</v>
-      </c>
-      <c r="H137">
-        <v>361477437.53570098</v>
-      </c>
-      <c r="I137">
-        <v>144590975</v>
-      </c>
-      <c r="J137">
-        <v>39.999999996049297</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>287</v>
-      </c>
-      <c r="B138" t="s">
-        <v>138</v>
-      </c>
-      <c r="C138">
-        <v>1.7081289401154099E-3</v>
-      </c>
-      <c r="D138">
-        <v>-9.8245146045509699</v>
-      </c>
-      <c r="E138">
-        <v>17081289.401154101</v>
-      </c>
-      <c r="F138">
-        <v>9785478.1903883107</v>
-      </c>
-      <c r="G138">
-        <v>170879.65506200001</v>
-      </c>
-      <c r="H138">
-        <v>10000000000</v>
-      </c>
-      <c r="I138">
-        <v>5728770212</v>
-      </c>
-      <c r="J138">
-        <v>57.287702119999899</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>139</v>
-      </c>
-      <c r="B139" t="s">
-        <v>139</v>
-      </c>
-      <c r="C139">
-        <v>2.13174645834837E-2</v>
-      </c>
-      <c r="D139">
-        <v>-10.6198205373297</v>
-      </c>
-      <c r="E139">
-        <v>17053971.666786902</v>
-      </c>
-      <c r="F139">
-        <v>11226847.6259085</v>
-      </c>
-      <c r="G139">
-        <v>953095.49204399996</v>
-      </c>
-      <c r="H139">
-        <v>800000000</v>
-      </c>
-      <c r="I139">
-        <v>526650230</v>
-      </c>
-      <c r="J139">
-        <v>65.831278749999996</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>152</v>
-      </c>
-      <c r="B140" t="s">
-        <v>140</v>
-      </c>
-      <c r="C140">
-        <v>1.69622459165636E-2</v>
-      </c>
-      <c r="D140">
-        <v>-12.7609096334516</v>
-      </c>
-      <c r="E140">
-        <v>16962245.9165636</v>
-      </c>
-      <c r="F140">
-        <v>11486061.3899791</v>
-      </c>
-      <c r="G140">
-        <v>1156055.14166</v>
-      </c>
-      <c r="H140">
-        <v>1000000000</v>
-      </c>
-      <c r="I140">
-        <v>677154514</v>
-      </c>
-      <c r="J140">
-        <v>67.715451400000006</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>288</v>
-      </c>
-      <c r="B141" t="s">
-        <v>141</v>
-      </c>
-      <c r="C141">
-        <v>1.6051521303593701E-2</v>
-      </c>
-      <c r="D141">
-        <v>-9.3813650370762698</v>
-      </c>
-      <c r="E141">
-        <v>16051521.303593701</v>
-      </c>
-      <c r="F141">
-        <v>10176180.119720001</v>
-      </c>
-      <c r="G141">
-        <v>201946.91822600001</v>
-      </c>
-      <c r="H141">
-        <v>1000000000</v>
-      </c>
-      <c r="I141">
-        <v>633969823</v>
-      </c>
-      <c r="J141">
-        <v>63.396982299999998</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>289</v>
-      </c>
-      <c r="B142" t="s">
-        <v>142</v>
-      </c>
-      <c r="C142">
-        <v>1.4419806372022699E-3</v>
-      </c>
-      <c r="D142">
-        <v>-7.8817658769333097</v>
-      </c>
-      <c r="E142">
-        <v>16022007.0798651</v>
-      </c>
-      <c r="F142">
-        <v>5880138.0011092201</v>
-      </c>
-      <c r="G142">
-        <v>411381.72905700002</v>
-      </c>
-      <c r="H142">
-        <v>11111111111</v>
-      </c>
-      <c r="I142">
-        <v>4077820360</v>
-      </c>
-      <c r="J142">
-        <v>36.700383240367003</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>290</v>
-      </c>
-      <c r="B143" t="s">
-        <v>143</v>
-      </c>
-      <c r="C143">
-        <v>1.5884039041548201E-2</v>
-      </c>
-      <c r="D143">
-        <v>-2.2399959824328999</v>
-      </c>
-      <c r="E143">
-        <v>15884039.0415482</v>
-      </c>
-      <c r="F143">
-        <v>7951718.2038246403</v>
-      </c>
-      <c r="G143">
-        <v>1509042.5872299999</v>
-      </c>
-      <c r="H143">
-        <v>1000000000</v>
-      </c>
-      <c r="I143">
-        <v>500610593</v>
-      </c>
-      <c r="J143">
-        <v>50.061059299999997</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>291</v>
-      </c>
-      <c r="B144" t="s">
-        <v>144</v>
-      </c>
-      <c r="C144">
-        <v>12.6645271205371</v>
-      </c>
-      <c r="D144">
-        <v>-20.425463817458901</v>
-      </c>
-      <c r="E144">
-        <v>15830658.9006714</v>
-      </c>
-      <c r="F144">
-        <v>14523515.0629794</v>
-      </c>
-      <c r="G144">
-        <v>60601.5125358</v>
-      </c>
-      <c r="H144">
-        <v>1250000</v>
-      </c>
-      <c r="I144">
-        <v>1146787</v>
-      </c>
-      <c r="J144">
-        <v>91.742959999999997</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>292</v>
-      </c>
-      <c r="B145" t="s">
-        <v>145</v>
-      </c>
-      <c r="C145">
-        <v>0.80007157249402205</v>
-      </c>
-      <c r="D145">
-        <v>-7.3279488381172797</v>
-      </c>
-      <c r="E145">
-        <v>15704515.288469</v>
-      </c>
-      <c r="F145">
-        <v>15704515.288469</v>
-      </c>
-      <c r="G145">
-        <v>4575872.1884000003</v>
-      </c>
-      <c r="H145">
-        <v>19628888</v>
-      </c>
-      <c r="I145">
-        <v>19628888</v>
-      </c>
-      <c r="J145">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>293</v>
-      </c>
-      <c r="B146" t="s">
-        <v>146</v>
-      </c>
-      <c r="C146">
-        <v>0.39149774300041801</v>
-      </c>
-      <c r="D146">
-        <v>-6.4398679417524098</v>
-      </c>
-      <c r="E146">
-        <v>15507038.8558231</v>
-      </c>
-      <c r="F146">
-        <v>14136710.234320501</v>
-      </c>
-      <c r="G146">
-        <v>41193.986251800001</v>
-      </c>
-      <c r="H146">
-        <v>39609523</v>
-      </c>
-      <c r="I146">
-        <v>36109302</v>
-      </c>
-      <c r="J146">
-        <v>91.163183156737304</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>294</v>
-      </c>
-      <c r="B147" t="s">
-        <v>147</v>
-      </c>
-      <c r="C147">
-        <v>2.6828429223737099E-2</v>
-      </c>
-      <c r="D147">
-        <v>-12.697598491946099</v>
-      </c>
-      <c r="E147">
-        <v>15350317.822319301</v>
-      </c>
-      <c r="F147">
-        <v>13194782.367375201</v>
-      </c>
-      <c r="G147">
-        <v>981488.94460599998</v>
-      </c>
-      <c r="H147">
-        <v>572166103.88571596</v>
-      </c>
-      <c r="I147">
-        <v>491820906</v>
-      </c>
-      <c r="J147">
-        <v>85.957714492334702</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>295</v>
-      </c>
-      <c r="B148" t="s">
-        <v>148</v>
-      </c>
-      <c r="C148">
-        <v>1.5254637267245101E-2</v>
-      </c>
-      <c r="D148">
-        <v>-10.3352781659254</v>
-      </c>
-      <c r="E148">
-        <v>15246242.548829099</v>
-      </c>
-      <c r="F148">
-        <v>11610974.8654081</v>
-      </c>
-      <c r="G148">
-        <v>562540.95896299998</v>
-      </c>
-      <c r="H148">
-        <v>999449694</v>
-      </c>
-      <c r="I148">
-        <v>761143950</v>
-      </c>
-      <c r="J148">
-        <v>76.1563042711782</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>296</v>
-      </c>
-      <c r="B149" t="s">
-        <v>149</v>
-      </c>
-      <c r="C149">
-        <v>1.47992749607602E-2</v>
-      </c>
-      <c r="D149">
-        <v>-11.5120411133103</v>
-      </c>
-      <c r="E149">
-        <v>14799274.9607602</v>
-      </c>
-      <c r="F149">
-        <v>6341212.1154664597</v>
-      </c>
-      <c r="G149">
-        <v>909035.27920899994</v>
-      </c>
-      <c r="H149">
-        <v>1000000000</v>
-      </c>
-      <c r="I149">
-        <v>428481269</v>
-      </c>
-      <c r="J149">
-        <v>42.848126899999997</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>297</v>
-      </c>
-      <c r="B150" t="s">
-        <v>150</v>
-      </c>
-      <c r="C150">
-        <v>2.4323936538069999E-2</v>
-      </c>
-      <c r="D150">
-        <v>-11.0726083239672</v>
-      </c>
-      <c r="E150">
-        <v>14594361.922842</v>
-      </c>
-      <c r="F150">
-        <v>5837744.7691368004</v>
-      </c>
-      <c r="G150">
-        <v>381598.86529300001</v>
-      </c>
-      <c r="H150">
-        <v>600000000</v>
-      </c>
-      <c r="I150">
-        <v>240000000</v>
-      </c>
-      <c r="J150">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>298</v>
-      </c>
-      <c r="B151" t="s">
-        <v>151</v>
-      </c>
-      <c r="C151">
-        <v>4.3259419116068298E-3</v>
-      </c>
-      <c r="D151">
-        <v>-11.004417881105001</v>
-      </c>
-      <c r="E151">
-        <v>13590347.326808801</v>
-      </c>
-      <c r="F151">
-        <v>10633087.749761799</v>
-      </c>
-      <c r="G151">
-        <v>851946.47693</v>
-      </c>
-      <c r="H151">
-        <v>3141592653</v>
-      </c>
-      <c r="I151">
-        <v>2457982092</v>
-      </c>
-      <c r="J151">
-        <v>78.240000009320099</v>
+        <v>0.65910682100000006</v>
       </c>
     </row>
   </sheetData>
